--- a/biology/Botanique/Hydrocera_triflora/Hydrocera_triflora.xlsx
+++ b/biology/Botanique/Hydrocera_triflora/Hydrocera_triflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrocera
-Hydrocera triflora, unique représentant du genre Hydrocera, est une espèce de plantes de la famille des Balsaminaceae[1].
+Hydrocera triflora, unique représentant du genre Hydrocera, est une espèce de plantes de la famille des Balsaminaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante se rencontre en Asie du Sud-Est dans les pays suivants[2] : Bangladesh, Birmanie, Cambodge, Chine, Inde, Indonésie, Laos, Malaisie, Philippines, Sri Lanka, Thaïlande, Viêt Nam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se rencontre en Asie du Sud-Est dans les pays suivants : Bangladesh, Birmanie, Cambodge, Chine, Inde, Indonésie, Laos, Malaisie, Philippines, Sri Lanka, Thaïlande, Viêt Nam.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hydrocera triflora (L.) Wight &amp; Arn.[3].
-L'espèce a été initialement classée dans le genre Impatiens sous le basionyme Impatiens triflora L.[3].
-Hydrocera triflora a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hydrocera triflora (L.) Wight &amp; Arn..
+L'espèce a été initialement classée dans le genre Impatiens sous le basionyme Impatiens triflora L..
+Hydrocera triflora a pour synonymes :
 Balsamina angustifolia Blume
 Hydrocera angustifolia (Blume) Blume
 Hydrocera angustifolia (Blume) Blume ex Wight &amp; Arn.
